--- a/Primera Entrega/Clase 8- Memoria/Alumnos/Git_Y_Github_Bustamante_Oliver/Actividad clase 8.xlsx
+++ b/Primera Entrega/Clase 8- Memoria/Alumnos/Git_Y_Github_Bustamante_Oliver/Actividad clase 8.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Bustamante_Oliver\Mochila_1022C1PT\Primera Entrega\Clase 8- Memoria\Alumnos\Git_Y_Github_Bustamante_Oliver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6832502-7E4D-400D-8F21-EF6586AE089D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0183744E-1564-46B0-AABA-C2AAF35EF19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,18 +445,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,18 +737,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:H17"/>
+  <dimension ref="E1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="9.140625" style="4"/>
-    <col min="5" max="5" width="38.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="4"/>
+    <col min="5" max="5" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:7" x14ac:dyDescent="0.25">
@@ -775,7 +772,7 @@
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3">
         <v>7.1</v>
       </c>
     </row>
@@ -786,7 +783,7 @@
       <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4">
         <v>1.6</v>
       </c>
     </row>
@@ -797,7 +794,7 @@
       <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5">
         <v>5.92</v>
       </c>
     </row>
@@ -808,7 +805,7 @@
       <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6">
         <v>1.0900000000000001</v>
       </c>
     </row>
@@ -819,7 +816,7 @@
       <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7">
         <v>1.4</v>
       </c>
     </row>
@@ -838,7 +835,7 @@
       <c r="F9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9">
         <v>5</v>
       </c>
     </row>
@@ -849,7 +846,7 @@
       <c r="F10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10">
         <v>1.57</v>
       </c>
     </row>
@@ -860,7 +857,7 @@
       <c r="F11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11">
         <v>1.4</v>
       </c>
     </row>
@@ -871,7 +868,7 @@
       <c r="F12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -882,7 +879,7 @@
       <c r="F13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13">
         <v>3.3</v>
       </c>
     </row>
@@ -893,7 +890,7 @@
       <c r="F14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14">
         <v>0.45800000000000002</v>
       </c>
     </row>
@@ -904,7 +901,7 @@
       <c r="F15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15">
         <v>1.7</v>
       </c>
     </row>
@@ -915,12 +912,12 @@
       <c r="F16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16">
         <v>0.33</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="4">
+      <c r="G17">
         <f>SUM(G2:G16)</f>
         <v>30.951999999999995</v>
       </c>
